--- a/tables/TableS13_farm_specifications.xlsx
+++ b/tables/TableS13_farm_specifications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/aquacast/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02255B3C-DCB4-3A4C-9E2E-F940E6C4EAAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70547B3-5740-CE42-AEC9-426B32C607AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="5100" windowWidth="25600" windowHeight="15540" xr2:uid="{AC439BE0-5DA9-1C4A-A6EB-F84CDDA5BF8A}"/>
+    <workbookView xWindow="30680" yWindow="4800" windowWidth="25600" windowHeight="15540" xr2:uid="{AC439BE0-5DA9-1C4A-A6EB-F84CDDA5BF8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Parameter</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t xml:space="preserve">Number of longlines needed </t>
+  </si>
+  <si>
+    <t>Natural mortality (1/yr)</t>
+  </si>
+  <si>
+    <t>Number of adults harvested</t>
+  </si>
+  <si>
+    <t>Number of juveniles stocked</t>
   </si>
 </sst>
 </file>
@@ -302,7 +311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -327,6 +336,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -642,16 +652,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3982DFA-5FB4-9549-8848-FFC1758E3497}">
-  <dimension ref="A2:G32"/>
+  <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -738,140 +748,153 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6">
-        <v>888283</v>
+        <v>29</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0.77</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1258</v>
+        <v>31</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5335012</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="6">
+        <v>740236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6">
-        <v>9858049</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="6">
+        <v>8215040</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="7" t="s">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="4">
-        <v>120</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="4">
-        <v>2109</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B22" s="4">
-        <v>400</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="4">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B25" s="4">
         <v>1500</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="9" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="10">
-        <v>5.8872010000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="10">
-        <v>19.079699999999999</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" s="10">
-        <v>3.358905</v>
+        <v>5.8872010000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5">
-        <f>B30*B26/B22/B21</f>
-        <v>548.6457380458528</v>
+        <v>20</v>
+      </c>
+      <c r="B29" s="10">
+        <v>19.079699999999999</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="4">
-        <f>B23*1000*1000/B27</f>
-        <v>78617588.326860487</v>
+        <v>14</v>
+      </c>
+      <c r="B30" s="10">
+        <v>3.358905</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="12">
-        <f>B30*B27/1000/1000/B28</f>
-        <v>446.57410674014301</v>
+        <v>28</v>
+      </c>
+      <c r="B31" s="5">
+        <f>B32*B28/B24/B23</f>
+        <v>548.64575595636734</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4">
+        <v>78617590.893327996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="12">
+        <v>446.57408759823301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="13">
-        <f>2718*B31</f>
-        <v>1213788.4221197087</v>
+      <c r="B34" s="13">
+        <v>1213982.62827119</v>
       </c>
     </row>
   </sheetData>
